--- a/BienBanNhom19.xlsx
+++ b/BienBanNhom19.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8580" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="8580" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tuần 1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="94">
   <si>
     <t>Biên bản họp , làm việc nhóm</t>
   </si>
@@ -279,6 +279,33 @@
   <si>
     <t>Thời gian - time: 03/10/2024</t>
   </si>
+  <si>
+    <t>Mô tả và vẽ các biểu đồ usecase của chức năng  Thêm vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>Mô tả và vẽ các biểu đồ usecase của chức năng Quản lí giỏ hàng</t>
+  </si>
+  <si>
+    <t>Mô tả và vẽ các biểu đồ usecase của chức năng Gửi phản hổi</t>
+  </si>
+  <si>
+    <t>Mô tả và vẽ các biểu đồ usecase của chức năng Thanh toán, Tìm kiếm</t>
+  </si>
+  <si>
+    <t>30'</t>
+  </si>
+  <si>
+    <t>Mô tả và vẽ các biểu đồ usecase của chức năng Thêm vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>Thời gian - time: 06/10/2024</t>
+  </si>
+  <si>
+    <t>Tạo cơ sở dữ liệu cho website</t>
+  </si>
+  <si>
+    <t>90'</t>
+  </si>
 </sst>
 </file>
 
@@ -338,14 +365,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -507,7 +534,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -583,12 +610,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,67 +963,67 @@
     <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,25 +1056,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1062,7 +1083,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1421,7 +1442,7 @@
   <sheetPr/>
   <dimension ref="A1:Z989"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+    <sheetView zoomScale="81" zoomScaleNormal="81" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
@@ -2806,13 +2827,13 @@
       <c r="B42" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="13">
         <v>2</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="13">
         <v>1</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="13">
         <v>2</v>
       </c>
       <c r="F42" s="5"/>
@@ -2844,13 +2865,13 @@
       <c r="B43" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="13">
         <v>1</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="13">
         <v>2</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="13">
         <v>2</v>
       </c>
       <c r="F43" s="5"/>
@@ -2882,13 +2903,13 @@
       <c r="B44" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="13">
         <v>2</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="13">
         <v>1</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="13">
         <v>2</v>
       </c>
       <c r="F44" s="5"/>
@@ -2920,13 +2941,13 @@
       <c r="B45" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="13">
         <v>1</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="13">
         <v>2</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="13">
         <v>2</v>
       </c>
       <c r="F45" s="5"/>
@@ -29469,8 +29490,8 @@
   <sheetPr/>
   <dimension ref="A1:Z975"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="A$1:F$1048576"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B27" sqref="A1:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="14.4"/>
@@ -29927,7 +29948,7 @@
       <c r="Z14" s="18"/>
     </row>
     <row r="15" ht="26.4" spans="1:26">
-      <c r="A15" s="11">
+      <c r="A15" s="14">
         <v>2</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -29939,7 +29960,7 @@
       <c r="D15" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="8"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -29963,7 +29984,7 @@
       <c r="Z15" s="18"/>
     </row>
     <row r="16" ht="26.4" spans="1:26">
-      <c r="A16" s="11">
+      <c r="A16" s="14">
         <v>3</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -29975,7 +29996,7 @@
       <c r="D16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="8"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -30103,17 +30124,17 @@
       <c r="Z19" s="18"/>
     </row>
     <row r="20" ht="39.6" spans="1:26">
-      <c r="A20" s="13">
+      <c r="A20" s="11">
         <v>1</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>80</v>
       </c>
       <c r="D20" s="8"/>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="11" t="s">
         <v>81</v>
       </c>
       <c r="F20" s="5"/>
@@ -30139,17 +30160,17 @@
       <c r="Z20" s="18"/>
     </row>
     <row r="21" ht="52.8" spans="1:26">
-      <c r="A21" s="13">
+      <c r="A21" s="11">
         <v>2</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>83</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="11" t="s">
         <v>83</v>
       </c>
       <c r="F21" s="5"/>
@@ -30249,7 +30270,7 @@
       <c r="B24" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="12">
         <v>45564</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -30279,19 +30300,19 @@
       <c r="Z24" s="18"/>
     </row>
     <row r="25" ht="26.4" spans="1:26">
-      <c r="A25" s="15">
+      <c r="A25" s="16">
         <v>2</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="12">
         <v>45564</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="12"/>
+      <c r="E25" s="15"/>
       <c r="F25" s="8"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
@@ -30315,19 +30336,19 @@
       <c r="Z25" s="18"/>
     </row>
     <row r="26" ht="26.4" spans="1:26">
-      <c r="A26" s="15">
+      <c r="A26" s="16">
         <v>3</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="12">
         <v>45564</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="15"/>
       <c r="F26" s="8"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
@@ -30357,7 +30378,7 @@
       <c r="B27" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="12">
         <v>45564</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -30463,13 +30484,13 @@
       <c r="B30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="13">
         <v>1</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="13">
         <v>1</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="13">
         <v>1</v>
       </c>
       <c r="F30" s="5"/>
@@ -30501,13 +30522,13 @@
       <c r="B31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="13">
         <v>1</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="13">
         <v>1</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="13">
         <v>1</v>
       </c>
       <c r="F31" s="5"/>
@@ -30539,13 +30560,13 @@
       <c r="B32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="13">
         <v>1</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="13">
         <v>4</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="13">
         <v>4</v>
       </c>
       <c r="F32" s="5"/>
@@ -30577,13 +30598,13 @@
       <c r="B33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="13">
         <v>1</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="13">
         <v>1</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="13">
         <v>1</v>
       </c>
       <c r="F33" s="5"/>
@@ -57019,8 +57040,8 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I32" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -57086,7 +57107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="26.4" spans="1:6">
+    <row r="8" spans="1:6">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -57102,7 +57123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="26.4" spans="1:6">
+    <row r="9" spans="1:6">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -57118,7 +57139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" ht="26.4" spans="1:6">
+    <row r="10" spans="1:6">
       <c r="A10" s="5">
         <v>3</v>
       </c>
@@ -57134,7 +57155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" ht="39.6" spans="1:6">
+    <row r="11" spans="1:6">
       <c r="A11" s="5">
         <v>4</v>
       </c>
@@ -57183,7 +57204,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>15</v>
@@ -57195,11 +57216,11 @@
       <c r="F14" s="8"/>
     </row>
     <row r="15" ht="31" customHeight="1" spans="1:6">
-      <c r="A15" s="11">
+      <c r="A15" s="14">
         <v>2</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>12</v>
@@ -57207,15 +57228,15 @@
       <c r="D15" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="8"/>
     </row>
     <row r="16" ht="32" customHeight="1" spans="1:6">
-      <c r="A16" s="11">
+      <c r="A16" s="14">
         <v>3</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>16</v>
@@ -57223,7 +57244,7 @@
       <c r="D16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="8"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:6">
@@ -57231,13 +57252,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="8"/>
@@ -57271,33 +57292,33 @@
       </c>
     </row>
     <row r="20" ht="79.2" spans="1:6">
-      <c r="A20" s="13">
+      <c r="A20" s="11">
         <v>1</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>80</v>
       </c>
       <c r="D20" s="8"/>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="11" t="s">
         <v>81</v>
       </c>
       <c r="F20" s="5"/>
     </row>
     <row r="21" ht="105.6" spans="1:6">
-      <c r="A21" s="13">
+      <c r="A21" s="11">
         <v>2</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>83</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="11" t="s">
         <v>83</v>
       </c>
       <c r="F21" s="5"/>
@@ -57335,9 +57356,9 @@
         <v>1</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="12">
         <v>45568</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -57347,35 +57368,35 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:6">
-      <c r="A25" s="15">
+      <c r="A25" s="16">
         <v>2</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="12">
         <v>45568</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="12"/>
+      <c r="E25" s="15"/>
       <c r="F25" s="8"/>
     </row>
     <row r="26" ht="26.4" spans="1:6">
-      <c r="A26" s="15">
+      <c r="A26" s="16">
         <v>3</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="12">
         <v>45568</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="15"/>
       <c r="F26" s="8"/>
     </row>
     <row r="27" ht="36" customHeight="1" spans="1:6">
@@ -57383,9 +57404,9 @@
         <v>4</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="12">
         <v>45568</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -57404,7 +57425,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" ht="45" customHeight="1" spans="1:6">
+    <row r="29" ht="65" customHeight="1" spans="1:6">
       <c r="A29" s="4" t="s">
         <v>6</v>
       </c>
@@ -57431,14 +57452,14 @@
       <c r="B30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="13">
         <v>1</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="13">
         <v>1</v>
       </c>
-      <c r="E30" s="16">
-        <v>1</v>
+      <c r="E30" s="13">
+        <v>4</v>
       </c>
       <c r="F30" s="5"/>
     </row>
@@ -57449,14 +57470,14 @@
       <c r="B31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="13">
+        <v>2</v>
+      </c>
+      <c r="D31" s="13">
         <v>1</v>
       </c>
-      <c r="D31" s="16">
-        <v>1</v>
-      </c>
-      <c r="E31" s="16">
-        <v>1</v>
+      <c r="E31" s="13">
+        <v>2</v>
       </c>
       <c r="F31" s="5"/>
     </row>
@@ -57467,13 +57488,13 @@
       <c r="B32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="13">
         <v>1</v>
       </c>
-      <c r="D32" s="16">
-        <v>4</v>
+      <c r="D32" s="13">
+        <v>2</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="13">
         <v>4</v>
       </c>
       <c r="F32" s="5"/>
@@ -57485,14 +57506,14 @@
       <c r="B33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="16">
-        <v>1</v>
+      <c r="C33" s="13">
+        <v>3</v>
       </c>
-      <c r="D33" s="16">
-        <v>1</v>
+      <c r="D33" s="13">
+        <v>2</v>
       </c>
-      <c r="E33" s="16">
-        <v>1</v>
+      <c r="E33" s="13">
+        <v>3</v>
       </c>
       <c r="F33" s="5"/>
     </row>
@@ -57577,14 +57598,433 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A24" sqref="$A24:$XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="14.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="36.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="18.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="10.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.4" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" ht="26.4" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" ht="26.4" spans="1:6">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" ht="26.4" spans="1:6">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" ht="26.4" spans="1:6">
+      <c r="A10" s="5">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" ht="39.6" spans="1:6">
+      <c r="A11" s="5">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" ht="26.4" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" ht="22" customHeight="1" spans="1:6">
+      <c r="A14" s="5">
+        <v>1</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" ht="66" spans="1:6">
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" ht="45" customHeight="1" spans="1:6">
+      <c r="A17" s="11">
+        <v>1</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" ht="39.6" spans="1:6">
+      <c r="A19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" ht="30" customHeight="1" spans="1:6">
+      <c r="A20" s="5">
+        <v>1</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="12">
+        <v>45571</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" ht="92.4" spans="1:6">
+      <c r="A22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" spans="1:6">
+      <c r="A23" s="5">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="13">
+        <v>1</v>
+      </c>
+      <c r="D23" s="13">
+        <v>2</v>
+      </c>
+      <c r="E23" s="13">
+        <v>4</v>
+      </c>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" ht="19" customHeight="1" spans="1:6">
+      <c r="A24" s="5">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="13">
+        <v>2</v>
+      </c>
+      <c r="D24" s="13">
+        <v>3</v>
+      </c>
+      <c r="E24" s="13">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="13">
+        <v>1</v>
+      </c>
+      <c r="D25" s="13">
+        <v>4</v>
+      </c>
+      <c r="E25" s="13">
+        <v>4</v>
+      </c>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" ht="21" customHeight="1" spans="1:6">
+      <c r="A26" s="5">
+        <v>4</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="13">
+        <v>3</v>
+      </c>
+      <c r="D26" s="13">
+        <v>2</v>
+      </c>
+      <c r="E26" s="13">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" ht="26.4" spans="1:6">
+      <c r="A28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="5">
+        <v>1</v>
+      </c>
+      <c r="B29" s="5">
+        <v>4</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A27:F27"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
